--- a/mp1.xlsx
+++ b/mp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quari\Desktop\study\mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A757763D-1208-4669-9CCF-694758B4013C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E042B-5267-4E1E-BD69-6139A244E53E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
